--- a/QA relation eval.xlsx
+++ b/QA relation eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Resi Sujiwo\Documents\Project\cdQA\Question Analysis Disertasi BINUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3A6D1-10FC-4480-9221-65A307C20A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB1931D-670B-4F04-8D44-5697464EF1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{23BFE7D9-F7D7-4C60-8C3F-CBFED38CF702}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
   <si>
     <t>Question Classification</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Registrasi</t>
   </si>
   <si>
-    <t>Refund</t>
-  </si>
-  <si>
     <t>Verifikasi Pembayaran dan Daftar ulang</t>
   </si>
   <si>
@@ -81,33 +78,18 @@
     <t>registration, transfer, register, registering</t>
   </si>
   <si>
-    <t>information, informations, ask,asking, care, administration, marketing</t>
-  </si>
-  <si>
     <t>verification, validation, payment,-register, -registering, -registration</t>
   </si>
   <si>
-    <t>schedule</t>
-  </si>
-  <si>
     <t>orientation, mos</t>
   </si>
   <si>
-    <t>transfer, line, change, changing, update, updating</t>
-  </si>
-  <si>
-    <t>cancel, refund, cancelation, canceling</t>
-  </si>
-  <si>
     <t>degree, master, program, programs, tpks, major, majors, majoring, learning</t>
   </si>
   <si>
     <t>Matching Word (English)</t>
   </si>
   <si>
-    <t>cost, scholarship</t>
-  </si>
-  <si>
     <t>Apa saja syarat mendapatkan beasiswa?</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Kapankah pembayaran beasiswa dapat diperoleh oleh mahasiswa</t>
   </si>
   <si>
-    <t>cost, scholarship, payment</t>
-  </si>
-  <si>
     <t>Kapan mahasiswa dapat mendapatkan informasi tentang binus?</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <t>Kapan calon mahasiswa baru dapat melakukan pendaftaran di Binus?</t>
   </si>
   <si>
-    <t>Kapan tangggal paling lambat untuk mahasiswa dapat melakukan pembatalan pendaftaran?</t>
-  </si>
-  <si>
     <t>Siapa pusat informasi yang dapat mahasiswa tanyakan tentang proggram perkuliahan?</t>
   </si>
   <si>
@@ -204,15 +180,9 @@
     <t>Siapakah yang diperbolehkan untuk melakukan pendaftaran ke Binus?</t>
   </si>
   <si>
-    <t>Siapa saja yang boleh melakukan pembatalan pendaftaran mahasiswa yang bisa mendapatkan refund 75% dari biaya pendaftaran?</t>
-  </si>
-  <si>
     <t>Siapa saja mahasiswa yang wajib melakukan pendaftaran ulang di Binus?</t>
   </si>
   <si>
-    <t>information, informations, ask,asking, care, service, administration, marketing</t>
-  </si>
-  <si>
     <t>Kenapa pelayanan yang didapatkan mahasiswa buruk?</t>
   </si>
   <si>
@@ -222,39 +192,24 @@
     <t>Kenapa jadwal masuk mahasiswa masing-masing jurusan berbeda?</t>
   </si>
   <si>
-    <t>Kenapa mahasiswa diwajibkan mengikuti masa mahasiswa kampus?</t>
-  </si>
-  <si>
     <t>Kenapa mahasiswa diperbolehkan untuk mengajukan perubahan atau perpindahan program studi?</t>
   </si>
   <si>
     <t>Kenapa mahasiswa sering mengalami kendala pada saat pendaftaran mahasiswa baru?</t>
   </si>
   <si>
-    <t>Kenapa mahasiswa dapat melakukan refund dari uang pendaftaran?</t>
-  </si>
-  <si>
     <t>Answer Category</t>
   </si>
   <si>
     <t>Apa saja informasi yang diperlukan untuk pendaftaram mahasiswa baru di Binus?</t>
   </si>
   <si>
-    <t>Dimana informasi tentangg perpindahan program studi dapat ditemukan?</t>
-  </si>
-  <si>
     <t>Kapan orientasi mahasiswa baru dilaksanakan?</t>
   </si>
   <si>
-    <t>transfer, line, change, changing, changes, update, updating</t>
-  </si>
-  <si>
     <t>Kenapa ada perbedaan pada biaya kuliah masing-masing mahasiswa?</t>
   </si>
   <si>
-    <t>Kenapa mahasiswa diawibkan untuk melakukan verifikasi berkas pasca pendaftaran?</t>
-  </si>
-  <si>
     <t>Bagaimana cara mendapatkan informasi terkait manajemen kampus?</t>
   </si>
   <si>
@@ -276,9 +231,6 @@
     <t>Bagaimana cara untuk melakukan pendaftaran mahasiswa baru?</t>
   </si>
   <si>
-    <t>Bagaimana cara membatalkan pendaftaran mhasiswa baru?</t>
-  </si>
-  <si>
     <t>Bagaimana carta melakukan verifikasi berkas pasca registrasi?</t>
   </si>
   <si>
@@ -286,6 +238,96 @@
   </si>
   <si>
     <t>Predicted AC</t>
+  </si>
+  <si>
+    <t>ADMISI</t>
+  </si>
+  <si>
+    <t>schedule, schedules</t>
+  </si>
+  <si>
+    <t>INFORMASI PROGRAM</t>
+  </si>
+  <si>
+    <t>Dimana informasi tentang perpindahan program studi dapat ditemukan?</t>
+  </si>
+  <si>
+    <t>REGISTRASI</t>
+  </si>
+  <si>
+    <t>transfer, line, change, changes, changing, update, updating</t>
+  </si>
+  <si>
+    <t>transfer, line, change, changes, changing, changes, update, updating</t>
+  </si>
+  <si>
+    <t>cost, scholarship, tuition</t>
+  </si>
+  <si>
+    <t>cost, scholarship, tuition, payment</t>
+  </si>
+  <si>
+    <t>information, informations, ask,asking, care, service, administration, marketing, service, services, serving</t>
+  </si>
+  <si>
+    <t>Kenapa mahasiswa diwajibkan mengikuti masa orientasi mahasiswa?</t>
+  </si>
+  <si>
+    <t>Kenapa mahasiswa diwajibkan untuk melakukan verifikasi berkas pasca pendaftaran?</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>TP (AC)</t>
+  </si>
+  <si>
+    <t>FP (AC)</t>
+  </si>
+  <si>
+    <t>FN (AC)</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precission</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>TP (QC)</t>
+  </si>
+  <si>
+    <t>FP (QC)</t>
+  </si>
+  <si>
+    <t>FN (QC)</t>
+  </si>
+  <si>
+    <t>cancel, Pengembalian Dana, cancelation, canceling</t>
+  </si>
+  <si>
+    <t>Pengembalian Dana</t>
+  </si>
+  <si>
+    <t>Siapa saja yang boleh melakukan pembatalan pendaftaran mahasiswa yang bisa mendapatkan Pengembalian Dana 75% dari biaya pendaftaran?</t>
+  </si>
+  <si>
+    <t>Kenapa mahasiswa dapat melakukan Pengembalian Dana dari uang pendaftaran?</t>
+  </si>
+  <si>
+    <t>Kapan tangal paling lambat untuk mahasiswa dapat melakukan pembatalan pendaftaran?</t>
+  </si>
+  <si>
+    <t>Bagaimana cara membatalkan pendaftaran mahasiswa baru?</t>
   </si>
 </sst>
 </file>
@@ -309,15 +351,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -341,27 +401,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,10 +445,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,710 +804,1736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9B74D6-2A22-41A2-9A45-CF6777052E22}">
-  <dimension ref="B2:G56"/>
+  <dimension ref="B2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="115" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G11" si="0">D3</f>
+        <v>Admisi</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Biaya Perkuliahan</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Informasi Program</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Jadwal</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>73</v>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Orientasi Mahasiswa Baru</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Pengajuan Perubahan</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Registrasi</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Pengembalian Dana</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Verifikasi Pembayaran dan Daftar ulang</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" ref="G12:G21" si="1">D12</f>
+        <v>Admisi</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Informasi Program</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Orientasi Mahasiswa Baru</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Registrasi</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Pengembalian Dana</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>18</v>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Verifikasi Pembayaran dan Daftar ulang</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
+      <c r="E21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Admisi</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="15" t="str">
+        <f t="shared" ref="G22" si="2">D22</f>
+        <v>Biaya Perkuliahan</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
+      <c r="E24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>22</v>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G37" si="3">D25</f>
+        <v>Orientasi Mahasiswa Baru</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>17</v>
+      <c r="E26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15">
+        <v>1</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>23</v>
+      <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Registrasi</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Pengembalian Dana</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>18</v>
+      <c r="E29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
+        <v>1</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
+      <c r="E30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Admisi</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4" t="s">
-        <v>24</v>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Biaya Perkuliahan</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
-        <v>20</v>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Informasi Program</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4" t="s">
-        <v>21</v>
+      <c r="E33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
-        <v>22</v>
+      <c r="E34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Orientasi Mahasiswa Baru</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4" t="s">
-        <v>17</v>
+      <c r="E35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Pengajuan Perubahan</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4" t="s">
-        <v>23</v>
+      <c r="E36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Registrasi</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Pengembalian Dana</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>61</v>
+      <c r="E38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" ref="G38:G49" si="4">D38</f>
+        <v>Verifikasi Pembayaran dan Daftar ulang</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
-        <v>26</v>
+      <c r="E39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Admisi</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
+      <c r="E40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Biaya Perkuliahan</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
-        <v>20</v>
+      <c r="E41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Informasi Program</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>21</v>
+      <c r="E42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Jadwal</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
-        <v>22</v>
+      <c r="E43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Orientasi Mahasiswa Baru</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
+      <c r="E44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Pengajuan Perubahan</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
-        <v>23</v>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Registrasi</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Pengembalian Dana</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>18</v>
+      <c r="E47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Verifikasi Pembayaran dan Daftar ulang</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
-        <v>26</v>
+      <c r="E48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Admisi</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
-        <v>24</v>
+      <c r="E49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Biaya Perkuliahan</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4" t="s">
-        <v>20</v>
+      <c r="E50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" ref="G50:G55" si="5">D50</f>
+        <v>Informasi Program</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4" t="s">
-        <v>21</v>
+      <c r="E51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15">
+        <v>1</v>
+      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4" t="s">
-        <v>22</v>
+      <c r="E52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Orientasi Mahasiswa Baru</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4" t="s">
-        <v>17</v>
+      <c r="E53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Pengajuan Perubahan</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4" t="s">
-        <v>23</v>
+      <c r="E54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Registrasi</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Pengembalian Dana</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f>D56</f>
+        <v>Verifikasi Pembayaran dan Daftar ulang</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F57" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>84</v>
+      <c r="G57" s="14"/>
+      <c r="H57" s="17">
+        <f>SUM(H3:H56)</f>
+        <v>45</v>
+      </c>
+      <c r="I57" s="17">
+        <f>SUM(I3:I56)</f>
+        <v>9</v>
+      </c>
+      <c r="J57" s="17">
+        <f>SUM(J3:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="17">
+        <f t="shared" ref="K57:N57" si="6">SUM(K3:K56)</f>
+        <v>54</v>
+      </c>
+      <c r="L57" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G60" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="8">
+        <f>K57/(K57+M57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="8">
+        <f>K57/(K57+L57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G62" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="8">
+        <f>2*(H60*H61)/(H60*H61)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="8">
+        <f>H57/(H57+J57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="8">
+        <f>H57/(H57+I57)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="8">
+        <f>2*(H64*H65)/(H64+H65)</f>
+        <v>0.90909090909090906</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B30:B38"/>
     <mergeCell ref="B39:B47"/>
-    <mergeCell ref="B48:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/QA relation eval.xlsx
+++ b/QA relation eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Resi Sujiwo\Documents\Project\cdQA\Question Analysis Disertasi BINUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB1931D-670B-4F04-8D44-5697464EF1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D63DA-3285-49DA-A91C-8CDAB988CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{23BFE7D9-F7D7-4C60-8C3F-CBFED38CF702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23BFE7D9-F7D7-4C60-8C3F-CBFED38CF702}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,22 +452,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -489,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9B74D6-2A22-41A2-9A45-CF6777052E22}">
   <dimension ref="B2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="115" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -830,36 +830,36 @@
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -868,7 +868,7 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -890,14 +890,14 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -919,14 +919,14 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -948,14 +948,14 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -977,14 +977,14 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1006,14 +1006,14 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1035,14 +1035,14 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1064,14 +1064,14 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1093,14 +1093,14 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1122,7 +1122,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1131,7 +1131,7 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1153,42 +1153,42 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1210,42 +1210,42 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1267,42 +1267,42 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15">
-        <v>1</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1324,14 +1324,14 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1353,14 +1353,14 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1382,7 +1382,7 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1391,7 +1391,7 @@
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1413,99 +1413,99 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="15" t="str">
+      <c r="G22" s="20" t="str">
         <f t="shared" ref="G22" si="2">D22</f>
         <v>Biaya Perkuliahan</v>
       </c>
-      <c r="H22" s="15">
-        <v>1</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15">
-        <v>1</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20">
+        <v>1</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15">
-        <v>1</v>
-      </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1527,42 +1527,42 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15">
-        <v>1</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15">
-        <v>1</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1584,14 +1584,14 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1613,35 +1613,35 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15">
-        <v>1</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15">
-        <v>1</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1650,7 +1650,7 @@
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1672,14 +1672,14 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1701,14 +1701,14 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1730,42 +1730,42 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15">
-        <v>1</v>
-      </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15">
-        <v>1</v>
-      </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1787,14 +1787,14 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1816,14 +1816,14 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1845,14 +1845,14 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1874,14 +1874,14 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1903,7 +1903,7 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1912,7 +1912,7 @@
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1934,14 +1934,14 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1963,14 +1963,14 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1992,14 +1992,14 @@
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2021,14 +2021,14 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2050,14 +2050,14 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2079,14 +2079,14 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2108,14 +2108,14 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -2137,14 +2137,14 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2166,7 +2166,7 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2175,7 +2175,7 @@
       <c r="D48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2197,14 +2197,14 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -2226,14 +2226,14 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -2255,42 +2255,42 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15">
-        <v>1</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15">
-        <v>1</v>
-      </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9">
+        <v>1</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2312,14 +2312,14 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -2341,14 +2341,14 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2370,14 +2370,14 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2399,14 +2399,14 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2428,97 +2428,97 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="17">
+      <c r="G57" s="19"/>
+      <c r="H57" s="11">
         <f>SUM(H3:H56)</f>
         <v>45</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="11">
         <f>SUM(I3:I56)</f>
         <v>9</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="11">
         <f>SUM(J3:J56)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="17">
-        <f t="shared" ref="K57:N57" si="6">SUM(K3:K56)</f>
+      <c r="K57" s="11">
+        <f t="shared" ref="K57:M57" si="6">SUM(K3:K56)</f>
         <v>54</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="7">
         <f>K57/(K57+M57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="7">
         <f>K57/(K57+L57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="7">
         <f>2*(H60*H61)/(H60*H61)</f>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="7">
         <f>H57/(H57+J57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <f>H57/(H57+I57)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="7">
         <f>2*(H64*H65)/(H64+H65)</f>
         <v>0.90909090909090906</v>
       </c>
